--- a/tester.xlsx
+++ b/tester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BEMT_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D3823C-2530-40A3-A664-04A2AB2B2AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB0F0BA-B773-4DA6-BB1F-F32E0D2C2906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="13176" windowHeight="23256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Rhub</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>mu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re_aft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,12 +182,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -500,34 +511,35 @@
         <v>5</v>
       </c>
       <c r="H1" s="1">
-        <f>B1</f>
-        <v>1.8749999999999999E-2</v>
+        <f>B2-B1</f>
+        <v>1.2500000000000011E-3</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1">
-        <v>0</v>
+        <f>D1*H1</f>
+        <v>3.7500000000000031E-5</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1">
         <f>J1</f>
-        <v>0</v>
+        <v>3.7500000000000031E-5</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="1">
-        <f>($B$13*L1)/(PI()*B1^2)</f>
-        <v>0</v>
+        <f>($B$13*L1)/(PI()*B2^2)</f>
+        <v>5.96831036594608E-2</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1">
-        <f>$B$14/($B$16*B1)</f>
+        <f t="shared" ref="P1:P10" si="0">$B$14/($B$16*B1)</f>
         <v>0</v>
       </c>
     </row>
@@ -542,23 +554,23 @@
         <v>10</v>
       </c>
       <c r="H2" s="1">
-        <f>B2-B1</f>
-        <v>1.2500000000000011E-3</v>
+        <f t="shared" ref="H2:H9" si="1">B3-B2</f>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J9" si="0">D2*H2</f>
-        <v>3.7500000000000031E-5</v>
+        <f t="shared" ref="J2:J9" si="2">D2*H2</f>
+        <v>2.9999999999999992E-4</v>
       </c>
       <c r="L2" s="1">
         <f>SUM(J1:J2)</f>
-        <v>3.7500000000000031E-5</v>
+        <v>3.3749999999999996E-4</v>
       </c>
       <c r="N2" s="1">
-        <f>($B$13*L2)/(PI()*B2^2)</f>
-        <v>5.96831036594608E-2</v>
+        <f t="shared" ref="N2:N10" si="3">($B$13*L2)/(PI()*B3^2)</f>
+        <v>0.238732414637843</v>
       </c>
       <c r="P2" s="1">
-        <f>$B$14/($B$16*B2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -573,23 +585,23 @@
         <v>10</v>
       </c>
       <c r="H3" s="1">
-        <f>B3-B2</f>
-        <v>9.9999999999999985E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999992E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="L3" s="1">
         <f>SUM(J1:J3)</f>
-        <v>3.3749999999999996E-4</v>
+        <v>6.3750000000000005E-4</v>
       </c>
       <c r="N3" s="1">
-        <f>($B$13*L3)/(PI()*B3^2)</f>
-        <v>0.238732414637843</v>
+        <f t="shared" si="3"/>
+        <v>0.25365319055270824</v>
       </c>
       <c r="P3" s="1">
-        <f>$B$14/($B$16*B3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -604,23 +616,23 @@
         <v>10</v>
       </c>
       <c r="H4" s="1">
-        <f>B4-B3</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="L4" s="1">
         <f>SUM(J1:J4)</f>
-        <v>6.3750000000000005E-4</v>
+        <v>9.3750000000000007E-4</v>
       </c>
       <c r="N4" s="1">
-        <f>($B$13*L4)/(PI()*B4^2)</f>
-        <v>0.25365319055270824</v>
+        <f t="shared" si="3"/>
+        <v>0.238732414637843</v>
       </c>
       <c r="P4" s="1">
-        <f>$B$14/($B$16*B4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -635,23 +647,23 @@
         <v>10</v>
       </c>
       <c r="H5" s="1">
-        <f>B5-B4</f>
-        <v>1.0000000000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000003E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.9999999999999987E-4</v>
       </c>
       <c r="L5" s="1">
         <f>SUM(J1:J5)</f>
-        <v>9.3750000000000007E-4</v>
+        <v>1.2374999999999999E-3</v>
       </c>
       <c r="N5" s="1">
-        <f>($B$13*L5)/(PI()*B5^2)</f>
-        <v>0.238732414637843</v>
+        <f t="shared" si="3"/>
+        <v>0.2188380467513561</v>
       </c>
       <c r="P5" s="1">
-        <f>$B$14/($B$16*B5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -666,23 +678,23 @@
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <f>B6-B5</f>
-        <v>9.999999999999995E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.03</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999987E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="L6" s="1">
         <f>SUM(J1:J6)</f>
-        <v>1.2374999999999999E-3</v>
+        <v>2.1374999999999996E-3</v>
       </c>
       <c r="N6" s="1">
-        <f>($B$13*L6)/(PI()*B6^2)</f>
-        <v>0.2188380467513561</v>
+        <f t="shared" si="3"/>
+        <v>0.16799688437477842</v>
       </c>
       <c r="P6" s="1">
-        <f>$B$14/($B$16*B6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -697,23 +709,23 @@
         <v>10</v>
       </c>
       <c r="H7" s="1">
-        <f>B7-B6</f>
-        <v>0.03</v>
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999998E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.0000000000000024E-4</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(J1:J7)</f>
-        <v>2.1374999999999996E-3</v>
+        <v>2.4375E-3</v>
       </c>
       <c r="N7" s="1">
-        <f>($B$13*L7)/(PI()*B7^2)</f>
-        <v>0.16799688437477842</v>
+        <f t="shared" si="3"/>
+        <v>0.15517606951459795</v>
       </c>
       <c r="P7" s="1">
-        <f>$B$14/($B$16*B7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -728,23 +740,23 @@
         <v>10</v>
       </c>
       <c r="H8" s="1">
-        <f>B8-B7</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.999999999999995E-3</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000024E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.9999999999999987E-4</v>
       </c>
       <c r="L8" s="1">
         <f>SUM(J1:J8)</f>
-        <v>2.4375E-3</v>
+        <v>2.7374999999999999E-3</v>
       </c>
       <c r="N8" s="1">
-        <f>($B$13*L8)/(PI()*B8^2)</f>
-        <v>0.15517606951459795</v>
+        <f t="shared" si="3"/>
+        <v>0.14402864684762429</v>
       </c>
       <c r="P8" s="1">
-        <f>$B$14/($B$16*B8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -759,23 +771,23 @@
         <v>10</v>
       </c>
       <c r="H9" s="1">
-        <f>B9-B8</f>
-        <v>9.999999999999995E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999987E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="L9" s="1">
         <f>SUM(J1:J9)</f>
-        <v>2.7374999999999999E-3</v>
+        <v>3.1874999999999998E-3</v>
       </c>
       <c r="N9" s="1">
-        <f>($B$13*L9)/(PI()*B9^2)</f>
-        <v>0.14402864684762429</v>
+        <f t="shared" si="3"/>
+        <v>0.12987043356298658</v>
       </c>
       <c r="P9" s="1">
-        <f>$B$14/($B$16*B9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -789,24 +801,8 @@
       <c r="F10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="1">
-        <f>B10-B9</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J10" s="1">
-        <f>D10*H10</f>
-        <v>4.4999999999999999E-4</v>
-      </c>
-      <c r="L10" s="1">
-        <f>SUM(J1:J10)</f>
-        <v>3.1874999999999998E-3</v>
-      </c>
-      <c r="N10" s="1">
-        <f>($B$13*L10)/(PI()*B10^2)</f>
-        <v>0.12987043356298658</v>
-      </c>
       <c r="P10" s="1">
-        <f>$B$14/($B$16*B10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -844,7 +840,13 @@
       </c>
       <c r="J12" s="1">
         <f>$B$19*$B$16*B1*D1/$B$20</f>
-        <v>15946.620168428852</v>
+        <v>23919.93025264328</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="1">
+        <v>23919.9296875</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
@@ -862,16 +864,19 @@
         <v>57.295779513082323</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F20" si="1">$B$17+F2+$B$18</f>
+        <f t="shared" ref="F13:F20" si="4">$B$17+F2+$B$18</f>
         <v>10</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:H21" si="2">F13*$D$12</f>
+        <f t="shared" ref="H13:H21" si="5">F13*$D$12</f>
         <v>0.17453292519943295</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" ref="J13:J21" si="3">$B$19*$B$16*B2*D2/$B$20</f>
-        <v>17009.728179657443</v>
+        <f t="shared" ref="J13:J21" si="6">$B$19*$B$16*B2*D2/$B$20</f>
+        <v>25514.592269486169</v>
+      </c>
+      <c r="N13" s="1">
+        <v>26514.591796879999</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
@@ -889,16 +894,19 @@
         <v>0.10471975511965977</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
-        <v>25514.592269486166</v>
+        <f t="shared" si="6"/>
+        <v>38271.888404229256</v>
+      </c>
+      <c r="N14" s="1">
+        <v>38271.88671875</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
@@ -906,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
@@ -916,16 +924,19 @@
         <v>9.5492965855137211</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
-        <v>34019.456359314885</v>
+        <f t="shared" si="6"/>
+        <v>51029.184538972338</v>
+      </c>
+      <c r="N15" s="1">
+        <v>51029.18359375</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
@@ -934,22 +945,25 @@
       </c>
       <c r="B16" s="1">
         <f>B15*D14</f>
-        <v>418.87902047863906</v>
+        <v>628.31853071795865</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
-        <v>42524.320449143612</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>63786.480673715436</v>
+      </c>
+      <c r="N16" s="1">
+        <v>63786.48046875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -957,19 +971,22 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
-        <v>51029.184538972331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>76543.776808458511</v>
+      </c>
+      <c r="N17" s="1">
+        <v>76543.7734375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -977,19 +994,22 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
-        <v>76543.776808458497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>114815.66521268775</v>
+      </c>
+      <c r="N18" s="1">
+        <v>114815.6640625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -997,19 +1017,22 @@
         <v>1.2250000000000001</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
-        <v>85048.640898287224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>127572.96134743087</v>
+      </c>
+      <c r="N19" s="1">
+        <v>127572.9609375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1017,31 +1040,119 @@
         <v>1.8099999999999999E-5</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
-        <v>93553.504988115936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+        <f t="shared" si="6"/>
+        <v>140330.25748217394</v>
+      </c>
+      <c r="N20" s="1">
+        <v>140330.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="F21" s="1">
         <f>$B$17+F10+$B$18</f>
         <v>10</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
-        <v>106310.80112285902</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>159466.20168428856</v>
+      </c>
+      <c r="N21" s="1">
+        <v>159466.203125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3">
+        <f>B1-$B$1</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F24" s="3">
+        <f>B2-$B$1</f>
+        <v>1.2500000000000011E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F25" s="3">
+        <f t="shared" ref="F24:F35" si="7">B3-$B$1</f>
+        <v>1.125E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F26" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F27" s="3">
+        <f t="shared" si="7"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F28" s="3">
+        <f t="shared" si="7"/>
+        <v>4.1249999999999995E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F29" s="3">
+        <f>B7-$B$1</f>
+        <v>7.1249999999999994E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F30" s="3">
+        <f t="shared" si="7"/>
+        <v>8.1250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F31" s="3">
+        <f t="shared" si="7"/>
+        <v>9.1249999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F32" s="3">
+        <f t="shared" si="7"/>
+        <v>0.10625</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tester.xlsx
+++ b/tester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BEMT_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB0F0BA-B773-4DA6-BB1F-F32E0D2C2906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CE7832-133E-4AF9-A9CB-AC87E49AF6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="13176" windowHeight="23256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Rhub</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,30 @@
   </si>
   <si>
     <t>R_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBLADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEMT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,15 +186,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,19 +208,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,19 +536,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M46" sqref="J37:M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="9" width="8.796875" style="1"/>
-    <col min="10" max="10" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="1"/>
+    <col min="8" max="8" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1"/>
+    <col min="10" max="10" width="11.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.796875" style="1"/>
-    <col min="12" max="12" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="12" max="12" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.796875" style="1"/>
+    <col min="14" max="14" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" style="1"/>
+    <col min="16" max="16" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
@@ -493,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>1.8749999999999999E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -512,28 +584,28 @@
       </c>
       <c r="H1" s="1">
         <f>B2-B1</f>
-        <v>1.2500000000000011E-3</v>
+        <v>1.18333333333333E-2</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1">
         <f>D1*H1</f>
-        <v>3.7500000000000031E-5</v>
+        <v>3.5499999999999898E-4</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1">
         <f>J1</f>
-        <v>3.7500000000000031E-5</v>
+        <v>3.5499999999999898E-4</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="1">
         <f>($B$13*L1)/(PI()*B2^2)</f>
-        <v>5.96831036594608E-2</v>
+        <v>0.2456225302154838</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -545,7 +617,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B2" s="1">
-        <v>0.02</v>
+        <v>3.0333333333333299E-2</v>
       </c>
       <c r="D2" s="1">
         <v>0.03</v>
@@ -555,19 +627,19 @@
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H9" si="1">B3-B2</f>
-        <v>9.9999999999999985E-3</v>
+        <v>1.1833333333333303E-2</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J9" si="2">D2*H2</f>
-        <v>2.9999999999999992E-4</v>
+        <v>3.5499999999999909E-4</v>
       </c>
       <c r="L2" s="1">
         <f>SUM(J1:J2)</f>
-        <v>3.3749999999999996E-4</v>
+        <v>7.0999999999999807E-4</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" ref="N2:N10" si="3">($B$13*L2)/(PI()*B3^2)</f>
-        <v>0.238732414637843</v>
+        <f t="shared" ref="N2:N9" si="3">($B$13*L2)/(PI()*B3^2)</f>
+        <v>0.25421427270720348</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
@@ -576,7 +648,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
-        <v>0.03</v>
+        <v>4.2166666666666602E-2</v>
       </c>
       <c r="D3" s="1">
         <v>0.03</v>
@@ -586,19 +658,19 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <v>1.1833333333333293E-2</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>3.0000000000000003E-4</v>
+        <v>3.5499999999999876E-4</v>
       </c>
       <c r="L3" s="1">
         <f>SUM(J1:J3)</f>
-        <v>6.3750000000000005E-4</v>
+        <v>1.0649999999999969E-3</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="3"/>
-        <v>0.25365319055270824</v>
+        <v>0.23251030780914778</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
@@ -607,7 +679,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <v>0.04</v>
+        <v>5.3999999999999895E-2</v>
       </c>
       <c r="D4" s="1">
         <v>0.03</v>
@@ -617,19 +689,19 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>1.0000000000000002E-2</v>
+        <v>1.1833333333333307E-2</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>3.0000000000000003E-4</v>
+        <v>3.549999999999992E-4</v>
       </c>
       <c r="L4" s="1">
         <f>SUM(J1:J4)</f>
-        <v>9.3750000000000007E-4</v>
+        <v>1.4199999999999961E-3</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="3"/>
-        <v>0.238732414637843</v>
+        <v>0.20858197573100978</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
@@ -638,7 +710,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <v>0.05</v>
+        <v>6.5833333333333202E-2</v>
       </c>
       <c r="D5" s="1">
         <v>0.03</v>
@@ -648,19 +720,19 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
+        <v>1.1833333333333293E-2</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>2.9999999999999987E-4</v>
+        <v>3.5499999999999876E-4</v>
       </c>
       <c r="L5" s="1">
         <f>SUM(J1:J5)</f>
-        <v>1.2374999999999999E-3</v>
+        <v>1.7749999999999949E-3</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="3"/>
-        <v>0.2188380467513561</v>
+        <v>0.18733078272895298</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
@@ -669,7 +741,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <v>0.06</v>
+        <v>7.7666666666666495E-2</v>
       </c>
       <c r="D6" s="1">
         <v>0.03</v>
@@ -679,19 +751,19 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>1.1833333333333307E-2</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>8.9999999999999998E-4</v>
+        <v>3.549999999999992E-4</v>
       </c>
       <c r="L6" s="1">
         <f>SUM(J1:J6)</f>
-        <v>2.1374999999999996E-3</v>
+        <v>2.1299999999999939E-3</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="3"/>
-        <v>0.16799688437477842</v>
+        <v>0.16928312039486287</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
@@ -700,7 +772,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <v>0.09</v>
+        <v>8.9499999999999802E-2</v>
       </c>
       <c r="D7" s="1">
         <v>0.03</v>
@@ -710,19 +782,19 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
+        <v>1.1833333333333293E-2</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>3.0000000000000024E-4</v>
+        <v>3.5499999999999876E-4</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(J1:J7)</f>
-        <v>2.4375E-3</v>
+        <v>2.4849999999999924E-3</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>0.15517606951459795</v>
+        <v>0.15406424438409994</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="0"/>
@@ -731,7 +803,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <v>0.1</v>
+        <v>0.10133333333333309</v>
       </c>
       <c r="D8" s="1">
         <v>0.03</v>
@@ -741,19 +813,19 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>9.999999999999995E-3</v>
+        <v>1.1833333333333307E-2</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>2.9999999999999987E-4</v>
+        <v>3.549999999999992E-4</v>
       </c>
       <c r="L8" s="1">
         <f>SUM(J1:J8)</f>
-        <v>2.7374999999999999E-3</v>
+        <v>2.8399999999999918E-3</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>0.14402864684762429</v>
+        <v>0.14117617636362412</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="0"/>
@@ -762,7 +834,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <v>0.11</v>
+        <v>0.1131666666666664</v>
       </c>
       <c r="D9" s="1">
         <v>0.03</v>
@@ -772,19 +844,19 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.1833333333333307E-2</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>4.4999999999999999E-4</v>
+        <v>3.549999999999992E-4</v>
       </c>
       <c r="L9" s="1">
         <f>SUM(J1:J9)</f>
-        <v>3.1874999999999998E-3</v>
+        <v>3.1949999999999912E-3</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="3"/>
-        <v>0.12987043356298658</v>
+        <v>0.13017601105372328</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="0"/>
@@ -793,7 +865,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <v>0.125</v>
+        <v>0.12499999999999971</v>
       </c>
       <c r="D10" s="1">
         <v>0.03</v>
@@ -812,7 +884,7 @@
       </c>
       <c r="B12" s="1">
         <f>B1</f>
-        <v>1.8749999999999999E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -840,7 +912,7 @@
       </c>
       <c r="J12" s="1">
         <f>$B$19*$B$16*B1*D1/$B$20</f>
-        <v>23919.93025264328</v>
+        <v>23600.997849274707</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>24</v>
@@ -873,7 +945,7 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ref="J13:J21" si="6">$B$19*$B$16*B2*D2/$B$20</f>
-        <v>25514.592269486169</v>
+        <v>38697.131608720651</v>
       </c>
       <c r="N13" s="1">
         <v>26514.591796879999</v>
@@ -903,7 +975,7 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="6"/>
-        <v>38271.888404229256</v>
+        <v>53793.265368166583</v>
       </c>
       <c r="N14" s="1">
         <v>38271.88671875</v>
@@ -933,7 +1005,7 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="6"/>
-        <v>51029.184538972338</v>
+        <v>68889.399127612531</v>
       </c>
       <c r="N15" s="1">
         <v>51029.18359375</v>
@@ -957,13 +1029,13 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" si="6"/>
-        <v>63786.480673715436</v>
+        <v>83985.532887058478</v>
       </c>
       <c r="N16" s="1">
         <v>63786.48046875</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -980,13 +1052,13 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="6"/>
-        <v>76543.776808458511</v>
+        <v>99081.666646504396</v>
       </c>
       <c r="N17" s="1">
         <v>76543.7734375</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1003,13 +1075,13 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" si="6"/>
-        <v>114815.66521268775</v>
+        <v>114177.80040595036</v>
       </c>
       <c r="N18" s="1">
         <v>114815.6640625</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1026,17 +1098,17 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" si="6"/>
-        <v>127572.96134743087</v>
+        <v>129273.93416539628</v>
       </c>
       <c r="N19" s="1">
         <v>127572.9609375</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1.8099999999999999E-5</v>
       </c>
       <c r="F20" s="1">
@@ -1049,13 +1121,13 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" si="6"/>
-        <v>140330.25748217394</v>
+        <v>144370.06792484221</v>
       </c>
       <c r="N20" s="1">
         <v>140330.25</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F21" s="1">
         <f>$B$17+F10+$B$18</f>
         <v>10</v>
@@ -1066,96 +1138,472 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" si="6"/>
-        <v>159466.20168428856</v>
+        <v>159466.20168428819</v>
       </c>
       <c r="N21" s="1">
         <v>159466.203125</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <f>B1-$B$1</f>
         <v>0</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="F24" s="3">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F24" s="1">
         <f>B2-$B$1</f>
-        <v>1.2500000000000011E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="F25" s="3">
-        <f t="shared" ref="F24:F35" si="7">B3-$B$1</f>
-        <v>1.125E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="F26" s="3">
+        <v>1.18333333333333E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F25" s="1">
+        <f t="shared" ref="F25:F32" si="7">B3-$B$1</f>
+        <v>2.3666666666666603E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F26" s="1">
         <f t="shared" si="7"/>
-        <v>2.1250000000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="F27" s="3">
+        <v>3.5499999999999893E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F27" s="1">
         <f t="shared" si="7"/>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="F28" s="3">
+        <v>4.73333333333332E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F28" s="1">
         <f t="shared" si="7"/>
-        <v>4.1249999999999995E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="F29" s="3">
+        <v>5.9166666666666493E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F29" s="1">
         <f>B7-$B$1</f>
-        <v>7.1249999999999994E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="F30" s="3">
+        <v>7.0999999999999799E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F30" s="1">
         <f t="shared" si="7"/>
-        <v>8.1250000000000003E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="F31" s="3">
+        <v>8.2833333333333092E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F31" s="1">
         <f t="shared" si="7"/>
-        <v>9.1249999999999998E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="F32" s="3">
+        <v>9.4666666666666399E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F32" s="1">
         <f t="shared" si="7"/>
-        <v>0.10625</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F35" s="3"/>
+        <v>0.10649999999999971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2.0656998999999999E-2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3.5548617999999998</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6.445138</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3">
+        <f>D37+F37</f>
+        <v>9.9999997999999994</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3">
+        <v>2.6953250000000002E-2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3.0011735000000002</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6.9988264999999998</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" ref="H38:H46" si="8">D38+F38</f>
+        <v>10</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="3">
+        <v>3.6878668000000003E-2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2.5956712</v>
+      </c>
+      <c r="F39" s="3">
+        <v>7.4043288</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="3">
+        <v>4.9629152000000003E-2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2.2329599999999998</v>
+      </c>
+      <c r="F40" s="3">
+        <v>7.7670402999999997</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="8"/>
+        <v>10.0000003</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="3">
+        <v>6.4171730999999996E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2.3031484999999998</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7.6968512999999996</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="8"/>
+        <v>9.9999997999999994</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="3">
+        <v>7.9328260999999997E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2.7421198000000002</v>
+      </c>
+      <c r="F42" s="3">
+        <v>7.2578801999999998</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="3">
+        <v>9.3870848000000007E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3.1197461999999998</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6.8802538000000002</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="3">
+        <v>0.10662133</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3.3971089999999999</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6.6028909999999996</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="3">
+        <v>0.11654675</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3.5854930999999999</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6.4145069000000001</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="4">
+        <v>0.12284299999999999</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3.6957206999999999</v>
+      </c>
+      <c r="F46" s="4">
+        <v>6.3042793000000001</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B1</f>
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="3">
+        <v>8.7591546200000003</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.2408453800000001</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="3">
+        <f>D50+F50</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="3">
+        <f t="shared" ref="B51:B59" si="9">B2</f>
+        <v>3.0333333333333299E-2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>8.9408540500000004</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1.05914595</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" ref="H51:H58" si="10">D51+F51</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="3">
+        <f t="shared" si="9"/>
+        <v>4.2166666666666602E-2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>9.0919935200000008</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.90800647999999995</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="3">
+        <f t="shared" si="9"/>
+        <v>5.3999999999999895E-2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>9.2144229699999993</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.78557703000000001</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="3">
+        <f t="shared" si="9"/>
+        <v>6.5833333333333202E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>9.31285557</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.68714443000000003</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="3">
+        <f t="shared" si="9"/>
+        <v>7.7666666666666495E-2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>9.3922818600000006</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.60771814000000002</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="3">
+        <f t="shared" si="9"/>
+        <v>8.9499999999999802E-2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>9.4569612200000002</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.54303878000000005</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="3">
+        <f t="shared" si="9"/>
+        <v>0.10133333333333309</v>
+      </c>
+      <c r="D57" s="3">
+        <v>9.5102357099999999</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.48976428999999999</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="3">
+        <f t="shared" si="9"/>
+        <v>0.1131666666666664</v>
+      </c>
+      <c r="D58" s="3">
+        <v>9.5546416900000004</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.44535830999999998</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="4">
+        <f t="shared" si="9"/>
+        <v>0.12499999999999971</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="A47:C48"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tester.xlsx
+++ b/tester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BEMT_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CE7832-133E-4AF9-A9CB-AC87E49AF6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDA678E-1416-41A4-B2F6-DC0EFA5A0F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22944" yWindow="-96" windowWidth="13152" windowHeight="23232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,30 +230,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,29 +535,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M46" sqref="J37:M46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="1"/>
-    <col min="8" max="8" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="1"/>
-    <col min="10" max="10" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.796875" style="1"/>
-    <col min="12" max="12" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.796875" style="1"/>
-    <col min="14" max="14" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" style="1"/>
-    <col min="16" max="16" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="1"/>
+    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1"/>
+    <col min="12" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="1"/>
+    <col min="14" max="14" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1"/>
+    <col min="16" max="16" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>3.0333333333333299E-2</v>
       </c>
@@ -646,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>4.2166666666666602E-2</v>
       </c>
@@ -677,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>5.3999999999999895E-2</v>
       </c>
@@ -708,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>6.5833333333333202E-2</v>
       </c>
@@ -739,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>7.7666666666666495E-2</v>
       </c>
@@ -770,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>8.9499999999999802E-2</v>
       </c>
@@ -801,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>0.10133333333333309</v>
       </c>
@@ -832,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>0.1131666666666664</v>
       </c>
@@ -863,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>0.12499999999999971</v>
       </c>
@@ -878,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +918,7 @@
         <v>23919.9296875</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,7 +948,7 @@
         <v>26514.591796879999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,7 +978,7 @@
         <v>38271.88671875</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1008,7 @@
         <v>51029.18359375</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1032,7 @@
         <v>63786.48046875</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>76543.7734375</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>114815.6640625</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1104,7 +1101,7 @@
         <v>127572.9609375</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1127,7 +1124,7 @@
         <v>140330.25</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F21" s="1">
         <f>$B$17+F10+$B$18</f>
         <v>10</v>
@@ -1144,7 +1141,14 @@
         <v>159466.203125</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>0.17453293</v>
+      </c>
+      <c r="C23" s="1">
+        <f>B23*D13</f>
+        <v>10.000000275052232</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1153,446 +1157,444 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F24" s="1">
         <f>B2-$B$1</f>
         <v>1.18333333333333E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F25" s="1">
         <f t="shared" ref="F25:F32" si="7">B3-$B$1</f>
         <v>2.3666666666666603E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F26" s="1">
         <f t="shared" si="7"/>
         <v>3.5499999999999893E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F27" s="1">
         <f t="shared" si="7"/>
         <v>4.73333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F28" s="1">
         <f t="shared" si="7"/>
         <v>5.9166666666666493E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F29" s="1">
         <f>B7-$B$1</f>
         <v>7.0999999999999799E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F30" s="1">
         <f t="shared" si="7"/>
         <v>8.2833333333333092E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F31" s="1">
         <f t="shared" si="7"/>
         <v>9.4666666666666399E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F32" s="1">
         <f t="shared" si="7"/>
         <v>0.10649999999999971</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>2.0656998999999999E-2</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>3.5548617999999998</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>6.445138</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="1">
         <f>D37+F37</f>
         <v>9.9999997999999994</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
         <v>2.6953250000000002E-2</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>3.0011735000000002</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="1">
         <v>6.9988264999999998</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <f t="shared" ref="H38:H46" si="8">D38+F38</f>
         <v>10</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="3">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
         <v>3.6878668000000003E-2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>2.5956712</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>7.4043288</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="1">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
         <v>4.9629152000000003E-2</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>2.2329599999999998</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="1">
         <v>7.7670402999999997</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="1">
         <f t="shared" si="8"/>
         <v>10.0000003</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="3">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
         <v>6.4171730999999996E-2</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>2.3031484999999998</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>7.6968512999999996</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="1">
         <f t="shared" si="8"/>
         <v>9.9999997999999994</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="3">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
         <v>7.9328260999999997E-2</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>2.7421198000000002</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>7.2578801999999998</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="1">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="3">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
         <v>9.3870848000000007E-2</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>3.1197461999999998</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>6.8802538000000002</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="1">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="3">
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
         <v>0.10662133</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>3.3971089999999999</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <v>6.6028909999999996</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="1">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="3">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
         <v>0.11654675</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>3.5854930999999999</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>6.4145069000000001</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="1">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="4">
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
         <v>0.12284299999999999</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>3.6957206999999999</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>6.3042793000000001</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <f>B1</f>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>8.7591546200000003</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="1">
         <v>1.2408453800000001</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="1">
         <f>D50+F50</f>
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
         <f t="shared" ref="B51:B59" si="9">B2</f>
         <v>3.0333333333333299E-2</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <v>8.9408540500000004</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="1">
         <v>1.05914595</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="1">
         <f t="shared" ref="H51:H58" si="10">D51+F51</f>
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
         <f t="shared" si="9"/>
         <v>4.2166666666666602E-2</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <v>9.0919935200000008</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="1">
         <v>0.90800647999999995</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="1">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
         <f t="shared" si="9"/>
         <v>5.3999999999999895E-2</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <v>9.2144229699999993</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="1">
         <v>0.78557703000000001</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="1">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
         <f t="shared" si="9"/>
         <v>6.5833333333333202E-2</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <v>9.31285557</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="1">
         <v>0.68714443000000003</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="1">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
         <f t="shared" si="9"/>
         <v>7.7666666666666495E-2</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <v>9.3922818600000006</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="1">
         <v>0.60771814000000002</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="1">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
         <f t="shared" si="9"/>
         <v>8.9499999999999802E-2</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
         <v>9.4569612200000002</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="1">
         <v>0.54303878000000005</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="1">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
         <f t="shared" si="9"/>
         <v>0.10133333333333309</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="1">
         <v>9.5102357099999999</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="1">
         <v>0.48976428999999999</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="1">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
         <f t="shared" si="9"/>
         <v>0.1131666666666664</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
         <v>9.5546416900000004</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="1">
         <v>0.44535830999999998</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="1">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="4">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
         <f t="shared" si="9"/>
         <v>0.12499999999999971</v>
       </c>

--- a/tester.xlsx
+++ b/tester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BEMT_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDA678E-1416-41A4-B2F6-DC0EFA5A0F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C643387-99C1-49D1-A61A-C2089AF1156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="-96" windowWidth="13152" windowHeight="23232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Rhub</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,12 +165,44 @@
     <t>BEMT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Cl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thrust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +216,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="KoPubWorld바탕체 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -226,31 +265,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -268,6 +440,4667 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Thrust</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:t>비교</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QBlade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$34:$R$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7000 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$37:$R$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECE3-4837-BD2E-05B4936FE1F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>BEMT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$34:$R$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7000 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$38:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ECE3-4837-BD2E-05B4936FE1F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="928424336"/>
+        <c:axId val="928423376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="928424336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>RPM</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928423376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928423376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Thrust</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928424336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Torque</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:t>비교</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QBlade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$34:$R$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7000 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$55:$R$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECE3-4837-BD2E-05B4936FE1F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>BEMT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$34:$R$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3000 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000 </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000 </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7000 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$56:$R$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ECE3-4837-BD2E-05B4936FE1F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="928424336"/>
+        <c:axId val="928423376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="928424336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>RPM</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928423376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928423376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t>Torque (Nm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928424336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Cl</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:t>비교</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QBLADE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0656998999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6953250000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6878668000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9629152000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4171730999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9328260999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3870848000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10662133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11654675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12284299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$37:$J$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.2201054000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14012273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21303667000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31399262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39772582000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43667123000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46404156000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48524414999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50048393000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50949489999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93D4-46F6-AD62-3A889D04F8F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BEMT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0333333333333299E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2166666666666602E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5833333333333202E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7666666666666495E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9499999999999802E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10133333333333309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1131666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12499999999999971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$55:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9714370000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36279274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37369825000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39249971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37867173999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52507862000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51184750000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49837848000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48644928999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93D4-46F6-AD62-3A889D04F8F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1065288048"/>
+        <c:axId val="1065285168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1065288048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>radius</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065285168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1065285168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Cl</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> (-)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065288048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Cd</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:t>비교</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QBLADE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0656998999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6953250000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6878668000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9629152000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4171730999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9328260999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3870848000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10662133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11654675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12284299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$37:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7634630000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2487730999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8173158E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2453731000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7807189000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5594215E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4282681E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3487562999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3156978E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2987100999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93D4-46F6-AD62-3A889D04F8F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BEMT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0333333333333299E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2166666666666602E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5833333333333202E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7666666666666495E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9499999999999802E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10133333333333309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1131666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12499999999999971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$55:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.941875E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1820840000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0429969999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5844299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5298539999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4164410000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.379288E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2727489999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.246645E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93D4-46F6-AD62-3A889D04F8F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1065288048"/>
+        <c:axId val="1065285168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1065288048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>radius</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065285168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1065285168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Cd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> (-)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065288048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247170</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>55711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>449516</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>109498</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2C6023-42D2-0219-AA22-FC452E7E553B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>551969</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>51868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14087</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E151CE8F-1700-3AE8-967F-73A1416D5F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>439271</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D88786-7170-10C6-9B80-6AE6DA1506A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566697</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14728</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3142D12-BBE4-1D9E-AD8B-1F122651AD03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,31 +5366,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="1"/>
-    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1"/>
-    <col min="12" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="1"/>
-    <col min="14" max="14" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="1"/>
-    <col min="16" max="16" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="1"/>
+    <col min="8" max="8" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" style="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1"/>
+    <col min="12" max="12" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875" style="1"/>
+    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B2" s="1">
         <v>3.0333333333333299E-2</v>
       </c>
@@ -643,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>4.2166666666666602E-2</v>
       </c>
@@ -674,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>5.3999999999999895E-2</v>
       </c>
@@ -705,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>6.5833333333333202E-2</v>
       </c>
@@ -736,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>7.7666666666666495E-2</v>
       </c>
@@ -767,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>8.9499999999999802E-2</v>
       </c>
@@ -798,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>0.10133333333333309</v>
       </c>
@@ -829,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>0.1131666666666664</v>
       </c>
@@ -860,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>0.12499999999999971</v>
       </c>
@@ -875,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +5755,7 @@
         <v>23919.9296875</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,7 +5785,7 @@
         <v>26514.591796879999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,7 +5815,7 @@
         <v>38271.88671875</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,7 +5845,7 @@
         <v>51029.18359375</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +5869,7 @@
         <v>63786.48046875</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1055,7 +5892,7 @@
         <v>76543.7734375</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1078,7 +5915,7 @@
         <v>114815.6640625</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +5938,7 @@
         <v>127572.9609375</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1124,7 +5961,7 @@
         <v>140330.25</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F21" s="1">
         <f>$B$17+F10+$B$18</f>
         <v>10</v>
@@ -1141,7 +5978,7 @@
         <v>159466.203125</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>0.17453293</v>
       </c>
@@ -1157,74 +5994,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F24" s="1">
         <f>B2-$B$1</f>
         <v>1.18333333333333E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F25" s="1">
         <f t="shared" ref="F25:F32" si="7">B3-$B$1</f>
         <v>2.3666666666666603E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F26" s="1">
         <f t="shared" si="7"/>
         <v>3.5499999999999893E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F27" s="1">
         <f t="shared" si="7"/>
         <v>4.73333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F28" s="1">
         <f t="shared" si="7"/>
         <v>5.9166666666666493E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F29" s="1">
         <f>B7-$B$1</f>
         <v>7.0999999999999799E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F30" s="1">
         <f t="shared" si="7"/>
         <v>8.2833333333333092E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F31" s="1">
         <f t="shared" si="7"/>
         <v>9.4666666666666399E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="F32" s="1">
         <f t="shared" si="7"/>
         <v>0.10649999999999971</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="33" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="8">
+        <v>3000</v>
+      </c>
+      <c r="O34" s="8">
+        <v>4000</v>
+      </c>
+      <c r="P34" s="8">
+        <v>5000</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>6000</v>
+      </c>
+      <c r="R34" s="8">
+        <v>7000</v>
+      </c>
+      <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="13"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A36" s="17"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A37" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="1">
@@ -1249,12 +6132,24 @@
         <f>D37+F37</f>
         <v>9.9999997999999994</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="I37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="1">
+        <v>9.2201054000000005E-2</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3.7634630000000002E-2</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A38" s="17"/>
       <c r="B38" s="1">
         <v>2.6953250000000002E-2</v>
       </c>
@@ -1268,12 +6163,18 @@
         <f t="shared" ref="H38:H46" si="8">D38+F38</f>
         <v>10</v>
       </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="J38" s="1">
+        <v>0.14012273</v>
+      </c>
+      <c r="L38" s="1">
+        <v>3.2487730999999999E-2</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A39" s="17"/>
       <c r="B39" s="1">
         <v>3.6878668000000003E-2</v>
       </c>
@@ -1287,12 +6188,15 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="J39" s="1">
+        <v>0.21303667000000001</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2.8173158E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A40" s="17"/>
       <c r="B40" s="1">
         <v>4.9629152000000003E-2</v>
       </c>
@@ -1306,12 +6210,15 @@
         <f t="shared" si="8"/>
         <v>10.0000003</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="J40" s="1">
+        <v>0.31399262</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2.2453731000000001E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A41" s="17"/>
       <c r="B41" s="1">
         <v>6.4171730999999996E-2</v>
       </c>
@@ -1325,12 +6232,15 @@
         <f t="shared" si="8"/>
         <v>9.9999997999999994</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="J41" s="1">
+        <v>0.39772582000000001</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1.7807189000000001E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A42" s="17"/>
       <c r="B42" s="1">
         <v>7.9328260999999997E-2</v>
       </c>
@@ -1344,12 +6254,15 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="J42" s="1">
+        <v>0.43667123000000002</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1.5594215E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A43" s="17"/>
       <c r="B43" s="1">
         <v>9.3870848000000007E-2</v>
       </c>
@@ -1363,12 +6276,15 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="J43" s="1">
+        <v>0.46404156000000002</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1.4282681E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A44" s="17"/>
       <c r="B44" s="1">
         <v>0.10662133</v>
       </c>
@@ -1382,12 +6298,15 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="J44" s="1">
+        <v>0.48524414999999999</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1.3487562999999999E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A45" s="17"/>
       <c r="B45" s="1">
         <v>0.11654675</v>
       </c>
@@ -1401,211 +6320,461 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="J45" s="1">
+        <v>0.50048393000000002</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1.3156978E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A46" s="17"/>
+      <c r="B46" s="1">
         <v>0.12284299999999999</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>3.6957206999999999</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>6.3042793000000001</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="J46" s="1">
+        <v>0.50949489999999997</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1.2987100999999999E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A47" s="17"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A48" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4.3975859000000002</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6.3345701000000004E-2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A49" s="17"/>
+      <c r="L49" s="14"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A50" s="17"/>
+      <c r="L50" s="14"/>
+    </row>
+    <row r="51" spans="1:19" s="21" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="4">
+        <v>6000</v>
+      </c>
+      <c r="L52" s="14"/>
+      <c r="M52" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" s="8">
+        <v>3000</v>
+      </c>
+      <c r="O52" s="8">
+        <v>4000</v>
+      </c>
+      <c r="P52" s="8">
+        <v>5000</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>6000</v>
+      </c>
+      <c r="R52" s="8">
+        <v>7000</v>
+      </c>
+      <c r="S52" s="9"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A54" s="17"/>
+      <c r="L54" s="14"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="1">
-        <f>B1</f>
+      <c r="B55" s="1">
+        <f t="shared" ref="B55:B64" si="9">B1</f>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="1">
-        <v>8.7591546200000003</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="1">
-        <v>1.2408453800000001</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="1">
-        <f>D50+F50</f>
+      <c r="H55" s="1">
+        <f>D55+F55</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" s="14">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A56" s="17"/>
+      <c r="B56" s="1">
+        <f t="shared" si="9"/>
+        <v>3.0333333333333299E-2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.57135391</v>
+      </c>
+      <c r="F56" s="1">
+        <v>7.42864609</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" ref="H56:H64" si="10">D56+F56</f>
         <v>10</v>
       </c>
+      <c r="J56" s="1">
+        <v>4.9714370000000001E-2</v>
+      </c>
+      <c r="L56" s="14">
+        <v>2.941875E-2</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="1">
-        <f t="shared" ref="B51:B59" si="9">B2</f>
-        <v>3.0333333333333299E-2</v>
-      </c>
-      <c r="D51" s="1">
-        <v>8.9408540500000004</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1.05914595</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" ref="H51:H58" si="10">D51+F51</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="1">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A57" s="17"/>
+      <c r="B57" s="1">
         <f t="shared" si="9"/>
         <v>4.2166666666666602E-2</v>
       </c>
-      <c r="D52" s="1">
-        <v>9.0919935200000008</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0.90800647999999995</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="1">
-        <f t="shared" si="9"/>
-        <v>5.3999999999999895E-2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>9.2144229699999993</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0.78557703000000001</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="1">
-        <f t="shared" si="9"/>
-        <v>6.5833333333333202E-2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>9.31285557</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0.68714443000000003</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="1">
-        <f t="shared" si="9"/>
-        <v>7.7666666666666495E-2</v>
-      </c>
-      <c r="D55" s="1">
-        <v>9.3922818600000006</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0.60771814000000002</v>
-      </c>
-      <c r="H55" s="1">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="1">
-        <f t="shared" si="9"/>
-        <v>8.9499999999999802E-2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>9.4569612200000002</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0.54303878000000005</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="1">
-        <f t="shared" si="9"/>
-        <v>0.10133333333333309</v>
-      </c>
       <c r="D57" s="1">
-        <v>9.5102357099999999</v>
+        <v>2.5047492999999998</v>
       </c>
       <c r="F57" s="1">
-        <v>0.48976428999999999</v>
+        <v>7.4952506999999997</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
+      <c r="J57" s="1">
+        <v>0.36279274</v>
+      </c>
+      <c r="L57" s="14">
+        <v>2.1820840000000001E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A58" s="17"/>
       <c r="B58" s="1">
         <f t="shared" si="9"/>
-        <v>0.1131666666666664</v>
+        <v>5.3999999999999895E-2</v>
       </c>
       <c r="D58" s="1">
-        <v>9.5546416900000004</v>
+        <v>2.63813019</v>
       </c>
       <c r="F58" s="1">
-        <v>0.44535830999999998</v>
+        <v>7.36186981</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
+      <c r="J58" s="1">
+        <v>0.37369825000000001</v>
+      </c>
+      <c r="L58" s="14">
+        <v>2.0429969999999999E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A59" s="17"/>
+      <c r="B59" s="1">
+        <f t="shared" si="9"/>
+        <v>6.5833333333333202E-2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.8017234800000002</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7.1982765200000003</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.39249971</v>
+      </c>
+      <c r="L59" s="14">
+        <v>1.5844299999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A60" s="17"/>
+      <c r="B60" s="1">
+        <f t="shared" si="9"/>
+        <v>7.7666666666666495E-2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2.9709816</v>
+      </c>
+      <c r="F60" s="1">
+        <v>7.0290184</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.37867173999999998</v>
+      </c>
+      <c r="L60" s="14">
+        <v>1.5298539999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A61" s="17"/>
+      <c r="B61" s="1">
+        <f t="shared" si="9"/>
+        <v>8.9499999999999802E-2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3.1278801000000001</v>
+      </c>
+      <c r="F61" s="1">
+        <v>6.8721199000000004</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.52507862000000005</v>
+      </c>
+      <c r="L61" s="14">
+        <v>1.4164410000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A62" s="17"/>
+      <c r="B62" s="1">
+        <f t="shared" si="9"/>
+        <v>0.10133333333333309</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3.2823753400000002</v>
+      </c>
+      <c r="F62" s="1">
+        <v>6.7176246600000002</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.51184750000000001</v>
+      </c>
+      <c r="L62" s="14">
+        <v>1.379288E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A63" s="17"/>
+      <c r="B63" s="1">
+        <f t="shared" si="9"/>
+        <v>0.1131666666666664</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3.42691422</v>
+      </c>
+      <c r="F63" s="1">
+        <v>6.5730857800000004</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.49837848000000001</v>
+      </c>
+      <c r="L63" s="14">
+        <v>1.2727489999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A64" s="17"/>
+      <c r="B64" s="1">
         <f t="shared" si="9"/>
         <v>0.12499999999999971</v>
       </c>
+      <c r="D64" s="1">
+        <v>3.5626983600000002</v>
+      </c>
+      <c r="F64" s="1">
+        <v>6.4373016400000003</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.48644928999999998</v>
+      </c>
+      <c r="L64" s="14">
+        <v>1.246645E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="17"/>
+      <c r="L65" s="14"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4.7758001566491997</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6.5743211402764998E-2</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="1">
+        <v>25.282451250079902</v>
+      </c>
+      <c r="L66" s="14"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="17"/>
+      <c r="L67" s="14"/>
+    </row>
+    <row r="68" spans="1:12" s="21" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="20">
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O34:O35"/>
     <mergeCell ref="A34:C35"/>
-    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="A52:C53"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>